--- a/mobi_client/mobi_client/mobi_config/excel/016_迷宫系统.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/016_迷宫系统.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5E22DA-295B-4161-BCD2-B784E8FBD1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2D9F23-1666-4FC6-8917-50FED1780502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25680" yWindow="0" windowWidth="13500" windowHeight="20835" tabRatio="733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28020" yWindow="780" windowWidth="13500" windowHeight="16545" tabRatio="733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="maze|迷宫入口++" sheetId="1" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/excel/016_迷宫系统.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/016_迷宫系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11970" tabRatio="733" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="13140" tabRatio="733" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="maze|迷宫入口++" sheetId="1" r:id="rId1"/>
@@ -238,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="565">
   <si>
     <t>ID</t>
   </si>
@@ -1491,106 +1491,106 @@
     <t>0|315|0</t>
   </si>
   <si>
+    <t>501房间</t>
+  </si>
+  <si>
+    <t>502房间</t>
+  </si>
+  <si>
+    <t>503房间</t>
+  </si>
+  <si>
+    <t>504房间</t>
+  </si>
+  <si>
+    <t>505房间</t>
+  </si>
+  <si>
+    <t>506房间</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>maze202_part2|</t>
+  </si>
+  <si>
+    <t>202022|202024</t>
+  </si>
+  <si>
+    <t>maze202_boss21|</t>
+  </si>
+  <si>
+    <t>202021|202023</t>
+  </si>
+  <si>
+    <t>maze202_boss22|</t>
+  </si>
+  <si>
+    <t>maze202_boss23|</t>
+  </si>
+  <si>
+    <t>maze202_boss24|</t>
+  </si>
+  <si>
+    <t>UIPrefabs/ui_unit/hero_121</t>
+  </si>
+  <si>
+    <t>202021|202024</t>
+  </si>
+  <si>
+    <t>202021|202022</t>
+  </si>
+  <si>
+    <t>UIPrefabs/ui_unit/hero_104</t>
+  </si>
+  <si>
+    <t>202023|202022</t>
+  </si>
+  <si>
+    <t>maze_202_1</t>
+  </si>
+  <si>
+    <t>avg/NoticeTextures/对话</t>
+  </si>
+  <si>
+    <t>maze_202_2</t>
+  </si>
+  <si>
+    <t>maze_202_3</t>
+  </si>
+  <si>
+    <t>maze_202_4</t>
+  </si>
+  <si>
+    <t>maze_202_5</t>
+  </si>
+  <si>
     <t>403房间</t>
   </si>
   <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>maze203_part2|</t>
+  </si>
+  <si>
+    <t>0|0|-1</t>
+  </si>
+  <si>
+    <t>maze203_boss21|</t>
+  </si>
+  <si>
+    <t>maze203_boss21|胜利</t>
+  </si>
+  <si>
+    <t>库房</t>
+  </si>
+  <si>
     <t>-0.1|-1.7|0</t>
   </si>
   <si>
     <t>0|-80|-4</t>
-  </si>
-  <si>
-    <t>501房间</t>
-  </si>
-  <si>
-    <t>502房间</t>
-  </si>
-  <si>
-    <t>503房间</t>
-  </si>
-  <si>
-    <t>504房间</t>
-  </si>
-  <si>
-    <t>505房间</t>
-  </si>
-  <si>
-    <t>506房间</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>maze202_part2|</t>
-  </si>
-  <si>
-    <t>202022|202024</t>
-  </si>
-  <si>
-    <t>maze202_boss21|</t>
-  </si>
-  <si>
-    <t>202021|202023</t>
-  </si>
-  <si>
-    <t>maze202_boss22|</t>
-  </si>
-  <si>
-    <t>maze202_boss23|</t>
-  </si>
-  <si>
-    <t>maze202_boss24|</t>
-  </si>
-  <si>
-    <t>UIPrefabs/ui_unit/hero_121</t>
-  </si>
-  <si>
-    <t>202021|202024</t>
-  </si>
-  <si>
-    <t>202021|202022</t>
-  </si>
-  <si>
-    <t>UIPrefabs/ui_unit/hero_104</t>
-  </si>
-  <si>
-    <t>202023|202022</t>
-  </si>
-  <si>
-    <t>maze_202_1</t>
-  </si>
-  <si>
-    <t>avg/NoticeTextures/对话</t>
-  </si>
-  <si>
-    <t>maze_202_2</t>
-  </si>
-  <si>
-    <t>maze_202_3</t>
-  </si>
-  <si>
-    <t>maze_202_4</t>
-  </si>
-  <si>
-    <t>maze_202_5</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>maze203_part2|</t>
-  </si>
-  <si>
-    <t>0|0|-1</t>
-  </si>
-  <si>
-    <t>maze203_boss21|</t>
-  </si>
-  <si>
-    <t>maze203_boss21|胜利</t>
-  </si>
-  <si>
-    <t>库房</t>
   </si>
   <si>
     <t>maze301_exit|</t>
@@ -8937,11 +8937,11 @@
   <dimension ref="A1:X327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="F295" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="H278" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M317" sqref="M317"/>
+      <selection pane="bottomRight" activeCell="O308" sqref="O308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15889,7 +15889,7 @@
         <v>183</v>
       </c>
       <c r="L175" s="32" t="s">
-        <v>184</v>
+        <v>361</v>
       </c>
       <c r="M175" s="32" t="s">
         <v>185</v>
@@ -17338,12 +17338,8 @@
       <c r="F209" s="29">
         <v>210016</v>
       </c>
-      <c r="G209" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="H209" s="29" t="s">
-        <v>325</v>
-      </c>
+      <c r="G209" s="29"/>
+      <c r="H209" s="29"/>
       <c r="I209" s="29" t="s">
         <v>198</v>
       </c>
@@ -17354,10 +17350,10 @@
         <v>200</v>
       </c>
       <c r="L209" s="33" t="s">
-        <v>418</v>
+        <v>200</v>
       </c>
       <c r="M209" s="33" t="s">
-        <v>419</v>
+        <v>184</v>
       </c>
       <c r="N209" s="29"/>
       <c r="O209" s="29">
@@ -17470,7 +17466,7 @@
         <v>210019</v>
       </c>
       <c r="G212" s="29" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H212" s="29" t="s">
         <v>329</v>
@@ -17515,7 +17511,7 @@
         <v>210020</v>
       </c>
       <c r="G213" s="29" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H213" s="29" t="s">
         <v>333</v>
@@ -17560,7 +17556,7 @@
         <v>210021</v>
       </c>
       <c r="G214" s="29" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H214" s="29" t="s">
         <v>325</v>
@@ -17605,7 +17601,7 @@
         <v>210022</v>
       </c>
       <c r="G215" s="29" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H215" s="29" t="s">
         <v>329</v>
@@ -17650,7 +17646,7 @@
         <v>210023</v>
       </c>
       <c r="G216" s="29" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H216" s="29" t="s">
         <v>333</v>
@@ -17695,7 +17691,7 @@
         <v>210024</v>
       </c>
       <c r="G217" s="29" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H217" s="29" t="s">
         <v>329</v>
@@ -17725,7 +17721,7 @@
         <v>202001</v>
       </c>
       <c r="B218" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C218" s="28">
         <v>1</v>
@@ -17761,7 +17757,7 @@
         <v>202002</v>
       </c>
       <c r="B219" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C219" s="28">
         <v>2</v>
@@ -17787,7 +17783,7 @@
       <c r="N219" s="28"/>
       <c r="O219" s="28"/>
       <c r="P219" s="8" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="220" s="8" customFormat="1" spans="1:16">
@@ -17795,7 +17791,7 @@
         <v>202021</v>
       </c>
       <c r="B220" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C220" s="28">
         <v>21</v>
@@ -17828,10 +17824,10 @@
       </c>
       <c r="N220" s="28"/>
       <c r="O220" s="28" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="P220" s="8" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="221" s="8" customFormat="1" spans="1:16">
@@ -17839,7 +17835,7 @@
         <v>202022</v>
       </c>
       <c r="B221" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C221" s="28">
         <v>22</v>
@@ -17872,10 +17868,10 @@
       </c>
       <c r="N221" s="28"/>
       <c r="O221" s="28" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P221" s="8" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="222" s="8" customFormat="1" spans="1:16">
@@ -17883,7 +17879,7 @@
         <v>202023</v>
       </c>
       <c r="B222" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C222" s="28">
         <v>23</v>
@@ -17919,7 +17915,7 @@
         <v>202002</v>
       </c>
       <c r="P222" s="8" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="223" s="8" customFormat="1" spans="1:16">
@@ -17927,7 +17923,7 @@
         <v>202024</v>
       </c>
       <c r="B223" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C223" s="28">
         <v>24</v>
@@ -17963,7 +17959,7 @@
         <v>202002</v>
       </c>
       <c r="P223" s="8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="224" s="8" customFormat="1" spans="1:15">
@@ -17971,7 +17967,7 @@
         <v>202041</v>
       </c>
       <c r="B224" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C224" s="28">
         <v>41</v>
@@ -18014,7 +18010,7 @@
         <v>202042</v>
       </c>
       <c r="B225" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C225" s="28">
         <v>42</v>
@@ -18057,7 +18053,7 @@
         <v>202043</v>
       </c>
       <c r="B226" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C226" s="28">
         <v>43</v>
@@ -18066,7 +18062,7 @@
         <v>3</v>
       </c>
       <c r="E226" s="28" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F226" s="28">
         <v>2120</v>
@@ -18100,7 +18096,7 @@
         <v>202044</v>
       </c>
       <c r="B227" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C227" s="28">
         <v>44</v>
@@ -18135,7 +18131,7 @@
       <c r="M227" s="32"/>
       <c r="N227" s="28"/>
       <c r="O227" s="28" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="228" s="8" customFormat="1" spans="1:15">
@@ -18143,7 +18139,7 @@
         <v>202045</v>
       </c>
       <c r="B228" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C228" s="28">
         <v>45</v>
@@ -18178,7 +18174,7 @@
       <c r="M228" s="32"/>
       <c r="N228" s="28"/>
       <c r="O228" s="28" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="229" s="8" customFormat="1" spans="1:15">
@@ -18186,7 +18182,7 @@
         <v>202046</v>
       </c>
       <c r="B229" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C229" s="28">
         <v>46</v>
@@ -18221,7 +18217,7 @@
       <c r="M229" s="32"/>
       <c r="N229" s="28"/>
       <c r="O229" s="28" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="230" s="8" customFormat="1" spans="1:15">
@@ -18229,7 +18225,7 @@
         <v>202047</v>
       </c>
       <c r="B230" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C230" s="28">
         <v>47</v>
@@ -18264,7 +18260,7 @@
       <c r="M230" s="32"/>
       <c r="N230" s="28"/>
       <c r="O230" s="28" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="231" s="8" customFormat="1" spans="1:15">
@@ -18272,7 +18268,7 @@
         <v>202048</v>
       </c>
       <c r="B231" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C231" s="28">
         <v>48</v>
@@ -18281,7 +18277,7 @@
         <v>3</v>
       </c>
       <c r="E231" s="28" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F231" s="28">
         <v>2132</v>
@@ -18307,7 +18303,7 @@
       <c r="M231" s="32"/>
       <c r="N231" s="28"/>
       <c r="O231" s="28" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="232" s="8" customFormat="1" spans="1:15">
@@ -18315,7 +18311,7 @@
         <v>202049</v>
       </c>
       <c r="B232" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C232" s="28">
         <v>49</v>
@@ -18350,7 +18346,7 @@
       <c r="M232" s="32"/>
       <c r="N232" s="28"/>
       <c r="O232" s="28" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="233" s="8" customFormat="1" spans="1:15">
@@ -18358,7 +18354,7 @@
         <v>202050</v>
       </c>
       <c r="B233" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C233" s="28">
         <v>50</v>
@@ -18393,7 +18389,7 @@
       <c r="M233" s="32"/>
       <c r="N233" s="28"/>
       <c r="O233" s="28" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="234" s="8" customFormat="1" spans="1:15">
@@ -18401,7 +18397,7 @@
         <v>202051</v>
       </c>
       <c r="B234" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C234" s="28">
         <v>51</v>
@@ -18436,7 +18432,7 @@
       <c r="M234" s="32"/>
       <c r="N234" s="28"/>
       <c r="O234" s="28" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="235" s="8" customFormat="1" spans="1:15">
@@ -18444,7 +18440,7 @@
         <v>202052</v>
       </c>
       <c r="B235" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C235" s="28">
         <v>52</v>
@@ -18479,7 +18475,7 @@
       <c r="M235" s="32"/>
       <c r="N235" s="28"/>
       <c r="O235" s="28" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="236" s="8" customFormat="1" spans="1:15">
@@ -18487,7 +18483,7 @@
         <v>202053</v>
       </c>
       <c r="B236" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C236" s="28">
         <v>53</v>
@@ -18496,7 +18492,7 @@
         <v>3</v>
       </c>
       <c r="E236" s="28" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F236" s="28">
         <v>2124</v>
@@ -18522,7 +18518,7 @@
       <c r="M236" s="32"/>
       <c r="N236" s="28"/>
       <c r="O236" s="28" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="237" s="8" customFormat="1" spans="1:15">
@@ -18530,7 +18526,7 @@
         <v>202071</v>
       </c>
       <c r="B237" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C237" s="28">
         <v>71</v>
@@ -18539,14 +18535,14 @@
         <v>4</v>
       </c>
       <c r="E237" s="28" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F237" s="28"/>
       <c r="G237" s="28"/>
       <c r="H237" s="28"/>
       <c r="I237" s="28"/>
       <c r="J237" s="28" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K237" s="28" t="s">
         <v>183</v>
@@ -18567,7 +18563,7 @@
         <v>202072</v>
       </c>
       <c r="B238" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C238" s="28">
         <v>72</v>
@@ -18576,14 +18572,14 @@
         <v>4</v>
       </c>
       <c r="E238" s="28" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F238" s="28"/>
       <c r="G238" s="28"/>
       <c r="H238" s="28"/>
       <c r="I238" s="28"/>
       <c r="J238" s="28" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K238" s="28" t="s">
         <v>183</v>
@@ -18604,7 +18600,7 @@
         <v>202073</v>
       </c>
       <c r="B239" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C239" s="28">
         <v>73</v>
@@ -18613,14 +18609,14 @@
         <v>4</v>
       </c>
       <c r="E239" s="28" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F239" s="28"/>
       <c r="G239" s="28"/>
       <c r="H239" s="28"/>
       <c r="I239" s="28"/>
       <c r="J239" s="28" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K239" s="28" t="s">
         <v>183</v>
@@ -18641,7 +18637,7 @@
         <v>202074</v>
       </c>
       <c r="B240" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C240" s="28">
         <v>74</v>
@@ -18650,14 +18646,14 @@
         <v>4</v>
       </c>
       <c r="E240" s="28" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F240" s="28"/>
       <c r="G240" s="28"/>
       <c r="H240" s="28"/>
       <c r="I240" s="28"/>
       <c r="J240" s="28" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K240" s="28" t="s">
         <v>183</v>
@@ -18678,7 +18674,7 @@
         <v>202075</v>
       </c>
       <c r="B241" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C241" s="28">
         <v>75</v>
@@ -18687,14 +18683,14 @@
         <v>4</v>
       </c>
       <c r="E241" s="28" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F241" s="28"/>
       <c r="G241" s="28"/>
       <c r="H241" s="28"/>
       <c r="I241" s="28"/>
       <c r="J241" s="28" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K241" s="28" t="s">
         <v>183</v>
@@ -18707,7 +18703,7 @@
       </c>
       <c r="N241" s="28"/>
       <c r="O241" s="28" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="242" s="8" customFormat="1" spans="1:15">
@@ -18715,7 +18711,7 @@
         <v>202081</v>
       </c>
       <c r="B242" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C242" s="28">
         <v>81</v>
@@ -18760,7 +18756,7 @@
         <v>202082</v>
       </c>
       <c r="B243" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C243" s="28">
         <v>82</v>
@@ -18775,7 +18771,7 @@
         <v>210031</v>
       </c>
       <c r="G243" s="28" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="H243" s="28" t="s">
         <v>329</v>
@@ -18797,7 +18793,7 @@
       </c>
       <c r="N243" s="28"/>
       <c r="O243" s="28" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="244" s="8" customFormat="1" spans="1:15">
@@ -18805,7 +18801,7 @@
         <v>202083</v>
       </c>
       <c r="B244" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C244" s="28">
         <v>83</v>
@@ -18842,7 +18838,7 @@
       </c>
       <c r="N244" s="28"/>
       <c r="O244" s="28" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="245" s="8" customFormat="1" spans="1:15">
@@ -18850,7 +18846,7 @@
         <v>202084</v>
       </c>
       <c r="B245" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C245" s="28">
         <v>84</v>
@@ -18865,7 +18861,7 @@
         <v>210033</v>
       </c>
       <c r="G245" s="28" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H245" s="28" t="s">
         <v>329</v>
@@ -18887,7 +18883,7 @@
       </c>
       <c r="N245" s="28"/>
       <c r="O245" s="28" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="246" s="8" customFormat="1" spans="1:15">
@@ -18895,7 +18891,7 @@
         <v>202085</v>
       </c>
       <c r="B246" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C246" s="28">
         <v>85</v>
@@ -18910,7 +18906,7 @@
         <v>210034</v>
       </c>
       <c r="G246" s="28" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H246" s="28" t="s">
         <v>333</v>
@@ -18932,7 +18928,7 @@
       </c>
       <c r="N246" s="28"/>
       <c r="O246" s="28" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="247" s="9" customFormat="1" spans="1:16">
@@ -18940,7 +18936,7 @@
         <v>203001</v>
       </c>
       <c r="B247" s="29" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C247" s="29">
         <v>1</v>
@@ -18976,7 +18972,7 @@
         <v>203002</v>
       </c>
       <c r="B248" s="29" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C248" s="29">
         <v>2</v>
@@ -19002,7 +18998,7 @@
       <c r="N248" s="29"/>
       <c r="O248" s="29"/>
       <c r="P248" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="249" s="9" customFormat="1" spans="1:18">
@@ -19010,7 +19006,7 @@
         <v>203021</v>
       </c>
       <c r="B249" s="29" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C249" s="29">
         <v>21</v>
@@ -19036,7 +19032,7 @@
         <v>183</v>
       </c>
       <c r="L249" s="33" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M249" s="33" t="s">
         <v>184</v>
@@ -19046,10 +19042,10 @@
         <v>203002</v>
       </c>
       <c r="P249" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="R249" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="250" s="9" customFormat="1" spans="1:15">
@@ -19057,7 +19053,7 @@
         <v>203081</v>
       </c>
       <c r="B250" s="29" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C250" s="29">
         <v>81</v>
@@ -19072,7 +19068,7 @@
         <v>210035</v>
       </c>
       <c r="G250" s="29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H250" s="29" t="s">
         <v>325</v>
@@ -19087,10 +19083,10 @@
         <v>200</v>
       </c>
       <c r="L250" s="33" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
       <c r="M250" s="33" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="N250" s="29"/>
       <c r="O250" s="29">
@@ -19102,7 +19098,7 @@
         <v>203082</v>
       </c>
       <c r="B251" s="29" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C251" s="29">
         <v>82</v>
@@ -19117,7 +19113,7 @@
         <v>210036</v>
       </c>
       <c r="G251" s="29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H251" s="29" t="s">
         <v>329</v>
@@ -19147,7 +19143,7 @@
         <v>203083</v>
       </c>
       <c r="B252" s="29" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C252" s="29">
         <v>83</v>
@@ -19162,7 +19158,7 @@
         <v>210037</v>
       </c>
       <c r="G252" s="29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H252" s="29" t="s">
         <v>333</v>
@@ -19192,7 +19188,7 @@
         <v>203084</v>
       </c>
       <c r="B253" s="29" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C253" s="29">
         <v>84</v>
@@ -19207,7 +19203,7 @@
         <v>210038</v>
       </c>
       <c r="G253" s="29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H253" s="29" t="s">
         <v>325</v>
@@ -19237,7 +19233,7 @@
         <v>203085</v>
       </c>
       <c r="B254" s="29" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C254" s="29">
         <v>85</v>
@@ -19252,7 +19248,7 @@
         <v>210039</v>
       </c>
       <c r="G254" s="29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H254" s="29" t="s">
         <v>329</v>
@@ -19282,7 +19278,7 @@
         <v>203086</v>
       </c>
       <c r="B255" s="29" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C255" s="29">
         <v>86</v>
@@ -19297,7 +19293,7 @@
         <v>210040</v>
       </c>
       <c r="G255" s="29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H255" s="29" t="s">
         <v>333</v>
@@ -19327,7 +19323,7 @@
         <v>203087</v>
       </c>
       <c r="B256" s="29" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C256" s="29">
         <v>87</v>
@@ -19342,7 +19338,7 @@
         <v>210041</v>
       </c>
       <c r="G256" s="29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H256" s="29" t="s">
         <v>333</v>
@@ -22902,7 +22898,7 @@
         <v>343</v>
       </c>
       <c r="F7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G7" t="s">
         <v>183</v>
